--- a/ExcelFiles/EfficientSortTimes.xlsx
+++ b/ExcelFiles/EfficientSortTimes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,112 +437,128 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>10-bubble</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>20-bubble</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>30-bubble</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>40-bubble</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>50-bubble</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>60-bubble</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>70-bubble</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>80-bubble</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>90-bubble</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>100-bubble</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>110-bubble</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>120-bubble</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>130-bubble</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>140-bubble</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>150-bubble</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>151522300</v>
+      </c>
+      <c r="C2" t="n">
         <v>647285500</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1685775900</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3294704700</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5400546000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8126174800</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>11233643400</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>15064650900</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>19435116000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>24005996200</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>30284265700</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>36061384900</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>41729748700</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>48833987500</v>
+      </c>
+      <c r="P2" t="n">
+        <v>57400827000</v>
       </c>
     </row>
     <row r="3">
@@ -550,43 +566,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>156395400</v>
+      </c>
+      <c r="C3" t="n">
         <v>623469900</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1656746400</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3244835900</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5429650400</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8100276800</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>11335540200</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>14744038400</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>19533859200</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>23922483700</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>30428500200</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>36294447200</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>41865188900</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>48551183700</v>
+      </c>
+      <c r="P3" t="n">
+        <v>57341313000</v>
       </c>
     </row>
     <row r="4">
@@ -594,43 +616,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>144792900</v>
+      </c>
+      <c r="C4" t="n">
         <v>642773800</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1668076200</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3186248000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5342471900</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7954393300</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11286012600</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>14967301700</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>19267343000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>23663847200</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>30190390000</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>36242788600</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>41968851900</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>48505410200</v>
+      </c>
+      <c r="P4" t="n">
+        <v>57092039000</v>
       </c>
     </row>
     <row r="5">
@@ -638,43 +666,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>154929200</v>
+      </c>
+      <c r="C5" t="n">
         <v>646608100</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1684140000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>3302625300</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5446971600</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8002667100</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>11178295600</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>14961235800</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>19343979800</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>24234664000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>30305633300</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>36228354500</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>41965527700</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>48253383700</v>
+      </c>
+      <c r="P5" t="n">
+        <v>57220485800</v>
       </c>
     </row>
     <row r="6">
@@ -682,43 +716,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>146078300</v>
+      </c>
+      <c r="C6" t="n">
         <v>647526600</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1675172200</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3313086500</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5410097700</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8107150200</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>11220935900</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>14917129800</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>19368184400</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>24427428700</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>30399310000</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>36240144500</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>41927962600</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>49014752300</v>
+      </c>
+      <c r="P6" t="n">
+        <v>57230248500</v>
       </c>
     </row>
     <row r="7">
@@ -726,43 +766,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>150310500</v>
+      </c>
+      <c r="C7" t="n">
         <v>650905400</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1672833800</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>3300829900</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5435341200</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>8061761000</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>11289552400</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14706284900</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>19151045400</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>24143652300</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>30251766000</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>35963836400</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>41766099800</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>48478855900</v>
+      </c>
+      <c r="P7" t="n">
+        <v>57287353000</v>
       </c>
     </row>
     <row r="8">
@@ -770,43 +816,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>155753700</v>
+      </c>
+      <c r="C8" t="n">
         <v>639691500</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1683736700</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>3289953100</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5240987600</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7949834400</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>11141273000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>14999974600</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>19379548600</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>24238193900</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>30420386500</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>36182876200</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>42008845900</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>48780482000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>57737348600</v>
       </c>
     </row>
     <row r="9">
@@ -814,43 +866,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>145758100</v>
+      </c>
+      <c r="C9" t="n">
         <v>638845900</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1661871600</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>3280429700</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5361710600</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>8044542800</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>11333856300</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>14976131700</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>19153023000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>24042679100</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>30256295600</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>35931255700</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>41778114500</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>48270109100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>57672719600</v>
       </c>
     </row>
     <row r="10">
@@ -858,43 +916,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>156846800</v>
+      </c>
+      <c r="C10" t="n">
         <v>625577300</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1686914200</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>3291517300</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5324094100</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>8006440200</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>11285657300</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>15004032900</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>19139120500</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>24015251900</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>30480035500</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>36322808800</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>42045420600</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>48733147000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>57396999000</v>
       </c>
     </row>
     <row r="11">
@@ -902,43 +966,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>146518500</v>
+      </c>
+      <c r="C11" t="n">
         <v>652540400</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1671081600</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>3300218800</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>5455920200</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>8064611700</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>11275274300</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>17380224500</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>19426263000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>24268643700</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>30313343200</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>35870390000</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>41662116600</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>48712430300</v>
+      </c>
+      <c r="P11" t="n">
+        <v>57615938100</v>
       </c>
     </row>
     <row r="12">
@@ -946,43 +1016,49 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>155653500</v>
+      </c>
+      <c r="C12" t="n">
         <v>651817800</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1684355900</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>3311965300</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>5355347000</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>8019685300</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>11198703000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>15134767200</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>19271623800</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>24214617700</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>30299013500</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>36318140700</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>42096044500</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>48613028900</v>
+      </c>
+      <c r="P12" t="n">
+        <v>57473076900</v>
       </c>
     </row>
     <row r="13">
@@ -990,43 +1066,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>147355100</v>
+      </c>
+      <c r="C13" t="n">
         <v>649918700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1686721500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3279441800</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>5427546300</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>7921025500</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>11401879600</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>15098497700</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>19144855500</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>24027389800</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>30382079900</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>36044384500</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>41621542500</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>48631497100</v>
+      </c>
+      <c r="P13" t="n">
+        <v>57802153200</v>
       </c>
     </row>
     <row r="14">
@@ -1034,43 +1116,49 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>147203700</v>
+      </c>
+      <c r="C14" t="n">
         <v>644486900</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1678664200</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>3285393100</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>5503409500</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>8001486100</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>11417568400</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>15173107700</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>19141198800</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>24224581100</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>30148778300</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>36245977800</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>41904881700</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>48934407400</v>
+      </c>
+      <c r="P14" t="n">
+        <v>57779852400</v>
       </c>
     </row>
     <row r="15">
@@ -1078,43 +1166,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>155118700</v>
+      </c>
+      <c r="C15" t="n">
         <v>646784400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1666797900</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>3302801000</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>5547573900</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>8023359100</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>11423345300</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>15286342200</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>19316623400</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>24104674500</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>30413177900</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>36178203300</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>42048730300</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>48285946300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>57675421400</v>
       </c>
     </row>
     <row r="16">
@@ -1122,43 +1216,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>146487100</v>
+      </c>
+      <c r="C16" t="n">
         <v>631394400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1680482500</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>3289455400</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>5474831900</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8032072300</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>11345958500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>15160712600</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>19258799300</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>24084264800</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>30266078000</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>36254413100</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>41454984400</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>48588390000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>57708409700</v>
       </c>
     </row>
     <row r="17">
@@ -1166,43 +1266,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>156586400</v>
+      </c>
+      <c r="C17" t="n">
         <v>630258500</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1683679100</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>3304407900</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>5468262700</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>7903998200</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>11311705100</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>14962685700</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>19473576000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>24102408100</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>30394022200</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>36209206400</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>41808179300</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>48583965700</v>
+      </c>
+      <c r="P17" t="n">
+        <v>57569418200</v>
       </c>
     </row>
     <row r="18">
@@ -1210,43 +1316,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>146750600</v>
+      </c>
+      <c r="C18" t="n">
         <v>631941100</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1645767500</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>3303413300</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>5511578600</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>8061480100</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>11280974500</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>15067390700</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>19070413600</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>23861672400</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>30410883900</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>35938943300</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>41548408800</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>48266452200</v>
+      </c>
+      <c r="P18" t="n">
+        <v>57813039100</v>
       </c>
     </row>
     <row r="19">
@@ -1254,43 +1366,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>154404400</v>
+      </c>
+      <c r="C19" t="n">
         <v>646994700</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1685200900</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>3287349000</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>5489643700</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>8011701300</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>11353464900</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>14963741800</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>19226053500</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>24278195900</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>30162064400</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>36294258500</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>41475562600</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>48748522900</v>
+      </c>
+      <c r="P19" t="n">
+        <v>57868706500</v>
       </c>
     </row>
     <row r="20">
@@ -1298,43 +1416,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>146881600</v>
+      </c>
+      <c r="C20" t="n">
         <v>653235200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1691361100</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>3311021700</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>5504607200</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>7861945800</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>11301173100</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>15165695000</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>19091291100</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>24012481100</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>30355438900</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>35880736400</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>40917129200</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>48228955900</v>
+      </c>
+      <c r="P20" t="n">
+        <v>57552631600</v>
       </c>
     </row>
     <row r="21">
@@ -1342,43 +1466,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>144716500</v>
+      </c>
+      <c r="C21" t="n">
         <v>647523200</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1678991200</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3281726900</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>5496376600</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>8055010300</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>11355785900</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>14977176700</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>19345400600</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>24223385500</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>30035008200</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>36035766200</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>41802860000</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>48472355200</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57418015500</v>
       </c>
     </row>
     <row r="22">
@@ -1386,43 +1516,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>154289900</v>
+      </c>
+      <c r="C22" t="n">
         <v>642532200</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>1663355300</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>3264923800</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>5319104300</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>8044782700</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>11323338000</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>15142520800</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>19428295400</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>24065424700</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>30487474500</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>35705867600</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>41279577300</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>48700521700</v>
+      </c>
+      <c r="P22" t="n">
+        <v>57127292000</v>
       </c>
     </row>
     <row r="23">
@@ -1430,43 +1566,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>146846800</v>
+      </c>
+      <c r="C23" t="n">
         <v>629701000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1684257200</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>3282006100</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>5425179500</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>8015446700</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>11261327400</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>15161538100</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>19234569400</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>24095156000</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>30333433600</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>35811189400</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>41786352800</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>48440821700</v>
+      </c>
+      <c r="P23" t="n">
+        <v>56563914100</v>
       </c>
     </row>
     <row r="24">
@@ -1474,43 +1616,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>154635200</v>
+      </c>
+      <c r="C24" t="n">
         <v>630931000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1700579900</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>3267838500</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>5435753500</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>8043993500</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>11377057100</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>14795678600</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>19185670000</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>24140656100</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>30517364500</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>35764523000</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>40464376900</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>48726419100</v>
+      </c>
+      <c r="P24" t="n">
+        <v>56645054100</v>
       </c>
     </row>
     <row r="25">
@@ -1518,43 +1666,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>146621600</v>
+      </c>
+      <c r="C25" t="n">
         <v>651803300</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>1666453500</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>3310533600</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>5432236600</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>8025671500</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>11419795500</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>15081229100</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>19177124200</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>24045839600</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>30360299700</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>35908501600</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>41227908800</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>48455764700</v>
+      </c>
+      <c r="P25" t="n">
+        <v>56276722200</v>
       </c>
     </row>
     <row r="26">
@@ -1562,43 +1716,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>155040400</v>
+      </c>
+      <c r="C26" t="n">
         <v>654453500</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>1682010400</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>3271694900</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>5447995700</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>8034886000</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>11421180100</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>15132178000</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>19109110800</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>24298836100</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>30189468300</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>35882363500</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>41038466300</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>48694073900</v>
+      </c>
+      <c r="P26" t="n">
+        <v>57529567000</v>
       </c>
     </row>
     <row r="27">
@@ -1606,43 +1766,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>147750000</v>
+      </c>
+      <c r="C27" t="n">
         <v>644799200</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>1672224500</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>3289267400</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>5379816300</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>7875106500</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>11302428400</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>14836213900</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>19248526400</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>24039458300</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>30462465400</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>35925585900</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>41489792800</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>48236582400</v>
+      </c>
+      <c r="P27" t="n">
+        <v>57532724100</v>
       </c>
     </row>
     <row r="28">
@@ -1650,43 +1816,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>150995400</v>
+      </c>
+      <c r="C28" t="n">
         <v>647478100</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>1684377400</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>3283341700</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>5429035700</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>8046799700</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>11265932300</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>15237929500</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>19181507900</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>24158343700</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>30026237300</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>36202677000</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>41094932700</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>49899858400</v>
+      </c>
+      <c r="P28" t="n">
+        <v>57739448500</v>
       </c>
     </row>
     <row r="29">
@@ -1694,43 +1866,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>157018400</v>
+      </c>
+      <c r="C29" t="n">
         <v>643860000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1686592100</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>3269326100</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>5495344700</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>8077075600</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>11300785900</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>15047315700</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>19277065800</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>24109360000</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>30571490300</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>36410680700</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>41012534300</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>50860465300</v>
+      </c>
+      <c r="P29" t="n">
+        <v>57819026800</v>
       </c>
     </row>
     <row r="30">
@@ -1738,43 +1916,49 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>146707700</v>
+      </c>
+      <c r="C30" t="n">
         <v>631595700</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>1680278900</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>3242142000</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>5267851500</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>8070859100</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>11315842900</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>15165717300</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>19401404400</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>23751405300</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>30274245400</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>36255809000</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>41159045400</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>51028646800</v>
+      </c>
+      <c r="P30" t="n">
+        <v>57586094400</v>
       </c>
     </row>
     <row r="31">
@@ -1782,43 +1966,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>156685900</v>
+      </c>
+      <c r="C31" t="n">
         <v>619665700</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>1684969100</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>3271789900</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>5431967900</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>7961207500</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>11176064900</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>15006952600</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>19499698100</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>23612951200</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>30266115600</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>36082905800</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>41658391000</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>50686171600</v>
+      </c>
+      <c r="P31" t="n">
+        <v>57700935000</v>
       </c>
     </row>
     <row r="32">
@@ -1826,43 +2016,49 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>147736100</v>
+      </c>
+      <c r="C32" t="n">
         <v>647161500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1670301700</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>3296815300</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>5451852300</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>8031218500</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>11225946100</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>15115564700</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>19488877200</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>24087255500</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>30458823900</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>36075802500</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>41046460900</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>50913299400</v>
+      </c>
+      <c r="P32" t="n">
+        <v>57337109200</v>
       </c>
     </row>
     <row r="33">
@@ -1870,43 +2066,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>153417200</v>
+      </c>
+      <c r="C33" t="n">
         <v>652359400</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1679257100</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>3307797000</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>5435833600</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>8039725200</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>11363868400</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>15207321100</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>19343684600</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>24182333100</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>30337291400</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>35912781800</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>41077749800</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>50683145200</v>
+      </c>
+      <c r="P33" t="n">
+        <v>57746303400</v>
       </c>
     </row>
     <row r="34">
@@ -1914,43 +2116,49 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>154718800</v>
+      </c>
+      <c r="C34" t="n">
         <v>642828300</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>1681345500</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>3275564300</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>5389003300</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>8059983800</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>11260883400</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>15080622400</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>19333082000</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>24091024800</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>30379738900</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>36451364100</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>42221635600</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>51137799100</v>
+      </c>
+      <c r="P34" t="n">
+        <v>57875614200</v>
       </c>
     </row>
     <row r="35">
@@ -1958,43 +2166,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>145208800</v>
+      </c>
+      <c r="C35" t="n">
         <v>643615000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>1683861400</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>3293084300</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>5418479900</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>8023259900</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>11251025600</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>15189543200</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>19541500200</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>24307367200</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>30243323200</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>36101173700</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>42146635600</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>50877211600</v>
+      </c>
+      <c r="P35" t="n">
+        <v>57567996100</v>
       </c>
     </row>
     <row r="36">
@@ -2002,43 +2216,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>156442000</v>
+      </c>
+      <c r="C36" t="n">
         <v>634743500</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>1645964400</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>3269428200</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>5436580600</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>8049022900</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>11322977400</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>15172623400</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>19440960200</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>23885944300</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>30314051600</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>36632574900</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>42483416100</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>51324663800</v>
+      </c>
+      <c r="P36" t="n">
+        <v>57808764300</v>
       </c>
     </row>
     <row r="37">
@@ -2046,43 +2266,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>145024100</v>
+      </c>
+      <c r="C37" t="n">
         <v>627256200</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>1681314900</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>3268751000</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>5413182000</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>8263181000</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>11368771300</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>15158527600</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>19040396900</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>24281822000</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>30389876200</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>36342041800</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>42543645400</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>50768746300</v>
+      </c>
+      <c r="P37" t="n">
+        <v>57630224600</v>
       </c>
     </row>
     <row r="38">
@@ -2090,43 +2316,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>154229400</v>
+      </c>
+      <c r="C38" t="n">
         <v>612917100</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>1683211200</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>3302508300</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>5363406000</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>8048675100</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>11323449000</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>15069965500</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>19132116200</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>24265225800</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>30355915500</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>36428816100</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>42447178500</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>51231803300</v>
+      </c>
+      <c r="P38" t="n">
+        <v>57279346200</v>
       </c>
     </row>
     <row r="39">
@@ -2134,43 +2366,49 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>144372700</v>
+      </c>
+      <c r="C39" t="n">
         <v>652511700</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>1670218900</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>3254562700</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>5378402000</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>10140759600</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>11532994500</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>15130232400</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>18871141300</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>24133927200</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>30480374000</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>36059500500</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>42390545500</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>51089886000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>57384738400</v>
       </c>
     </row>
     <row r="40">
@@ -2178,43 +2416,49 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>144660900</v>
+      </c>
+      <c r="C40" t="n">
         <v>649513300</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>1667358100</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>3300216400</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>5326323500</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>7975208000</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>11511895700</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>15116913600</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>19108775400</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>24273329200</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>30087009800</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>36348970200</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>42539146900</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>49882609500</v>
+      </c>
+      <c r="P40" t="n">
+        <v>57158507300</v>
       </c>
     </row>
     <row r="41">
@@ -2222,43 +2466,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>150334100</v>
+      </c>
+      <c r="C41" t="n">
         <v>646826000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>1679120300</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>3222951500</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>5463353200</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>8092612300</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>11450558000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>14934997300</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>19174643000</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>23869128000</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>30379516700</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>36415543400</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>42851978100</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>48034516400</v>
+      </c>
+      <c r="P41" t="n">
+        <v>57577287300</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,6 +2596,11 @@
           <t>140-merge</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>150-merge</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2390,6 +2645,9 @@
       <c r="N2" t="n">
         <v>24404500</v>
       </c>
+      <c r="O2" t="n">
+        <v>22907600</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2434,6 +2692,9 @@
       <c r="N3" t="n">
         <v>24514900</v>
       </c>
+      <c r="O3" t="n">
+        <v>23209600</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2478,6 +2739,9 @@
       <c r="N4" t="n">
         <v>24150000</v>
       </c>
+      <c r="O4" t="n">
+        <v>22863100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2522,6 +2786,9 @@
       <c r="N5" t="n">
         <v>24436000</v>
       </c>
+      <c r="O5" t="n">
+        <v>22820000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2566,6 +2833,9 @@
       <c r="N6" t="n">
         <v>24155500</v>
       </c>
+      <c r="O6" t="n">
+        <v>22747700</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2610,6 +2880,9 @@
       <c r="N7" t="n">
         <v>24364200</v>
       </c>
+      <c r="O7" t="n">
+        <v>22882100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2654,6 +2927,9 @@
       <c r="N8" t="n">
         <v>24229300</v>
       </c>
+      <c r="O8" t="n">
+        <v>23248900</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2698,6 +2974,9 @@
       <c r="N9" t="n">
         <v>24181700</v>
       </c>
+      <c r="O9" t="n">
+        <v>23214300</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2742,6 +3021,9 @@
       <c r="N10" t="n">
         <v>24132100</v>
       </c>
+      <c r="O10" t="n">
+        <v>22854800</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2786,6 +3068,9 @@
       <c r="N11" t="n">
         <v>24397800</v>
       </c>
+      <c r="O11" t="n">
+        <v>22620900</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2830,6 +3115,9 @@
       <c r="N12" t="n">
         <v>24044900</v>
       </c>
+      <c r="O12" t="n">
+        <v>23055300</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2874,6 +3162,9 @@
       <c r="N13" t="n">
         <v>24125600</v>
       </c>
+      <c r="O13" t="n">
+        <v>23318400</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2918,6 +3209,9 @@
       <c r="N14" t="n">
         <v>24569500</v>
       </c>
+      <c r="O14" t="n">
+        <v>22881800</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2962,6 +3256,9 @@
       <c r="N15" t="n">
         <v>24276500</v>
       </c>
+      <c r="O15" t="n">
+        <v>23433100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3006,6 +3303,9 @@
       <c r="N16" t="n">
         <v>23853900</v>
       </c>
+      <c r="O16" t="n">
+        <v>22926300</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3050,6 +3350,9 @@
       <c r="N17" t="n">
         <v>24293400</v>
       </c>
+      <c r="O17" t="n">
+        <v>22986200</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3094,6 +3397,9 @@
       <c r="N18" t="n">
         <v>24022000</v>
       </c>
+      <c r="O18" t="n">
+        <v>22807300</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3138,6 +3444,9 @@
       <c r="N19" t="n">
         <v>24211000</v>
       </c>
+      <c r="O19" t="n">
+        <v>23136900</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3182,6 +3491,9 @@
       <c r="N20" t="n">
         <v>24202500</v>
       </c>
+      <c r="O20" t="n">
+        <v>22964200</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3226,6 +3538,9 @@
       <c r="N21" t="n">
         <v>24525200</v>
       </c>
+      <c r="O21" t="n">
+        <v>22918900</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3270,6 +3585,9 @@
       <c r="N22" t="n">
         <v>24541900</v>
       </c>
+      <c r="O22" t="n">
+        <v>23040900</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3314,6 +3632,9 @@
       <c r="N23" t="n">
         <v>24442400</v>
       </c>
+      <c r="O23" t="n">
+        <v>23366500</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3358,6 +3679,9 @@
       <c r="N24" t="n">
         <v>24460300</v>
       </c>
+      <c r="O24" t="n">
+        <v>22769900</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3402,6 +3726,9 @@
       <c r="N25" t="n">
         <v>24432600</v>
       </c>
+      <c r="O25" t="n">
+        <v>23175100</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3446,6 +3773,9 @@
       <c r="N26" t="n">
         <v>24698500</v>
       </c>
+      <c r="O26" t="n">
+        <v>23174500</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3490,6 +3820,9 @@
       <c r="N27" t="n">
         <v>24205400</v>
       </c>
+      <c r="O27" t="n">
+        <v>23570500</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3534,6 +3867,9 @@
       <c r="N28" t="n">
         <v>24568700</v>
       </c>
+      <c r="O28" t="n">
+        <v>23023000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3578,6 +3914,9 @@
       <c r="N29" t="n">
         <v>24474200</v>
       </c>
+      <c r="O29" t="n">
+        <v>23212000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3622,6 +3961,9 @@
       <c r="N30" t="n">
         <v>24548900</v>
       </c>
+      <c r="O30" t="n">
+        <v>22886300</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3666,6 +4008,9 @@
       <c r="N31" t="n">
         <v>24197100</v>
       </c>
+      <c r="O31" t="n">
+        <v>22775700</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3710,6 +4055,9 @@
       <c r="N32" t="n">
         <v>23953600</v>
       </c>
+      <c r="O32" t="n">
+        <v>23366000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3754,6 +4102,9 @@
       <c r="N33" t="n">
         <v>24271000</v>
       </c>
+      <c r="O33" t="n">
+        <v>22592200</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3798,6 +4149,9 @@
       <c r="N34" t="n">
         <v>24097000</v>
       </c>
+      <c r="O34" t="n">
+        <v>23048100</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3842,6 +4196,9 @@
       <c r="N35" t="n">
         <v>23859300</v>
       </c>
+      <c r="O35" t="n">
+        <v>22823500</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3886,6 +4243,9 @@
       <c r="N36" t="n">
         <v>24337000</v>
       </c>
+      <c r="O36" t="n">
+        <v>23507900</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3930,6 +4290,9 @@
       <c r="N37" t="n">
         <v>23990500</v>
       </c>
+      <c r="O37" t="n">
+        <v>23575800</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3974,6 +4337,9 @@
       <c r="N38" t="n">
         <v>24484500</v>
       </c>
+      <c r="O38" t="n">
+        <v>22739800</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4018,6 +4384,9 @@
       <c r="N39" t="n">
         <v>24062000</v>
       </c>
+      <c r="O39" t="n">
+        <v>22403100</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4062,6 +4431,9 @@
       <c r="N40" t="n">
         <v>24181900</v>
       </c>
+      <c r="O40" t="n">
+        <v>23064000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4105,6 +4477,9 @@
       </c>
       <c r="N41" t="n">
         <v>24380600</v>
+      </c>
+      <c r="O41" t="n">
+        <v>22942700</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/EfficientSortTimes.xlsx
+++ b/ExcelFiles/EfficientSortTimes.xlsx
@@ -1,38 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\GitHub\SortingAlg-Bubble-Merge\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E5864-CF9D-42F5-9A84-96BE047CABAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bubble" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Merge" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bubble" sheetId="1" r:id="rId1"/>
+    <sheet name="Merge" sheetId="2" r:id="rId2"/>
+    <sheet name="Bubble-MergeAverage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>10-bubble</t>
+  </si>
+  <si>
+    <t>20-bubble</t>
+  </si>
+  <si>
+    <t>30-bubble</t>
+  </si>
+  <si>
+    <t>40-bubble</t>
+  </si>
+  <si>
+    <t>50-bubble</t>
+  </si>
+  <si>
+    <t>60-bubble</t>
+  </si>
+  <si>
+    <t>70-bubble</t>
+  </si>
+  <si>
+    <t>80-bubble</t>
+  </si>
+  <si>
+    <t>90-bubble</t>
+  </si>
+  <si>
+    <t>100-bubble</t>
+  </si>
+  <si>
+    <t>110-bubble</t>
+  </si>
+  <si>
+    <t>120-bubble</t>
+  </si>
+  <si>
+    <t>130-bubble</t>
+  </si>
+  <si>
+    <t>140-bubble</t>
+  </si>
+  <si>
+    <t>150-bubble</t>
+  </si>
+  <si>
+    <t>20-merge</t>
+  </si>
+  <si>
+    <t>30-merge</t>
+  </si>
+  <si>
+    <t>40-merge</t>
+  </si>
+  <si>
+    <t>50-merge</t>
+  </si>
+  <si>
+    <t>60-merge</t>
+  </si>
+  <si>
+    <t>70-merge</t>
+  </si>
+  <si>
+    <t>80-merge</t>
+  </si>
+  <si>
+    <t>90-merge</t>
+  </si>
+  <si>
+    <t>100-merge</t>
+  </si>
+  <si>
+    <t>110-merge</t>
+  </si>
+  <si>
+    <t>120-merge</t>
+  </si>
+  <si>
+    <t>130-merge</t>
+  </si>
+  <si>
+    <t>140-merge</t>
+  </si>
+  <si>
+    <t>150-merge</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>DESVIO</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,94 +166,1207 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Bubble x Merge</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bubble-MergeAverage'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>150569967.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>641403275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1676885555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3282649190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5419191770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8080727285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11318668030</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15112367682.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19268886697.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24094782492.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30327774675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36136424737.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41733899280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49279006737.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57463566632.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA16-48A5-AA4C-9E52E5DBDA6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bubble-MergeAverage'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1567853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2826512.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4278597.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5912792.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7452922.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9267660</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10504050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12024157.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13494882.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15175617.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16177037.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18261467.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19589897.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24281947.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23021372.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA16-48A5-AA4C-9E52E5DBDA6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="129366959"/>
+        <c:axId val="316359711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="129366959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316359711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316359711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129366959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566031</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200554</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182209</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19C9974-F748-434E-BA76-592F244DEE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,2094 +1653,2193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>10-bubble</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>20-bubble</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>30-bubble</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>40-bubble</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>50-bubble</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>60-bubble</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>70-bubble</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>80-bubble</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>90-bubble</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>100-bubble</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>110-bubble</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>120-bubble</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>130-bubble</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>140-bubble</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>150-bubble</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>151522300</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>647285500</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1685775900</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3294704700</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5400546000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8126174800</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>11233643400</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>15064650900</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>19435116000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>24005996200</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>30284265700</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>36061384900</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>41729748700</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>48833987500</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>57400827000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>156395400</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>623469900</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1656746400</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3244835900</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5429650400</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>8100276800</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>11335540200</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>14744038400</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>19533859200</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>23922483700</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>30428500200</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>36294447200</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>41865188900</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>48551183700</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>57341313000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>144792900</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>642773800</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1668076200</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3186248000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5342471900</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7954393300</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>11286012600</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>14967301700</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>19267343000</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>23663847200</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>30190390000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>36242788600</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>41968851900</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>48505410200</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>57092039000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>154929200</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>646608100</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1684140000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3302625300</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>5446971600</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>8002667100</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>11178295600</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>14961235800</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>19343979800</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>24234664000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>30305633300</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>36228354500</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>41965527700</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>48253383700</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>57220485800</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>146078300</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>647526600</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1675172200</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3313086500</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5410097700</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>8107150200</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>11220935900</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>14917129800</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>19368184400</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>24427428700</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>30399310000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>36240144500</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>41927962600</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>49014752300</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>57230248500</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>150310500</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>650905400</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1672833800</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3300829900</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>5435341200</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>8061761000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>11289552400</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>14706284900</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>19151045400</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>24143652300</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>30251766000</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>35963836400</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>41766099800</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>48478855900</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>57287353000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>155753700</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>639691500</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1683736700</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3289953100</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>5240987600</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>7949834400</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>11141273000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>14999974600</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>19379548600</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>24238193900</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>30420386500</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>36182876200</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>42008845900</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>48780482000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>57737348600</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>145758100</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>638845900</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1661871600</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3280429700</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>5361710600</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>8044542800</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>11333856300</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>14976131700</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>19153023000</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>24042679100</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>30256295600</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>35931255700</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>41778114500</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>48270109100</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>57672719600</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>156846800</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>625577300</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1686914200</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3291517300</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5324094100</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>8006440200</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>11285657300</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>15004032900</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>19139120500</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>24015251900</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>30480035500</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>36322808800</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>42045420600</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>48733147000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>57396999000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>146518500</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>652540400</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1671081600</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3300218800</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5455920200</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>8064611700</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>11275274300</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>17380224500</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>19426263000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>24268643700</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>30313343200</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>35870390000</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>41662116600</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>48712430300</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>57615938100</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>155653500</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>651817800</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1684355900</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3311965300</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>5355347000</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>8019685300</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>11198703000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>15134767200</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>19271623800</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>24214617700</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>30299013500</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>36318140700</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>42096044500</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>48613028900</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>57473076900</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>147355100</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>649918700</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1686721500</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3279441800</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>5427546300</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>7921025500</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>11401879600</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>15098497700</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>19144855500</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>24027389800</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>30382079900</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>36044384500</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>41621542500</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>48631497100</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>57802153200</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>147203700</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>644486900</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1678664200</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>3285393100</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>5503409500</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>8001486100</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>11417568400</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>15173107700</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>19141198800</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>24224581100</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>30148778300</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>36245977800</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>41904881700</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>48934407400</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>57779852400</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>155118700</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>646784400</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1666797900</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>3302801000</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>5547573900</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>8023359100</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>11423345300</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>15286342200</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>19316623400</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>24104674500</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>30413177900</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>36178203300</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>42048730300</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>48285946300</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>57675421400</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>146487100</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>631394400</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1680482500</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3289455400</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>5474831900</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>8032072300</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>11345958500</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>15160712600</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>19258799300</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>24084264800</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>30266078000</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>36254413100</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>41454984400</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>48588390000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>57708409700</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>156586400</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>630258500</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1683679100</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3304407900</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>5468262700</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>7903998200</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>11311705100</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>14962685700</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>19473576000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>24102408100</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>30394022200</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>36209206400</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>41808179300</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>48583965700</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>57569418200</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>146750600</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>631941100</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1645767500</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3303413300</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>5511578600</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>8061480100</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>11280974500</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>15067390700</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>19070413600</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>23861672400</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>30410883900</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>35938943300</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>41548408800</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>48266452200</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>57813039100</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>154404400</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>646994700</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1685200900</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>3287349000</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>5489643700</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>8011701300</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>11353464900</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>14963741800</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>19226053500</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>24278195900</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>30162064400</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>36294258500</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>41475562600</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>48748522900</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>57868706500</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>146881600</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>653235200</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1691361100</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>3311021700</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>5504607200</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>7861945800</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>11301173100</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>15165695000</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>19091291100</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>24012481100</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>30355438900</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>35880736400</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>40917129200</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>48228955900</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>57552631600</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>144716500</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>647523200</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1678991200</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>3281726900</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>5496376600</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>8055010300</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>11355785900</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>14977176700</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>19345400600</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>24223385500</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>30035008200</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>36035766200</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>41802860000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>48472355200</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>57418015500</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>154289900</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>642532200</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1663355300</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>3264923800</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>5319104300</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>8044782700</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>11323338000</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>15142520800</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>19428295400</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>24065424700</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>30487474500</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>35705867600</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>41279577300</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>48700521700</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>57127292000</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>146846800</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>629701000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1684257200</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>3282006100</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>5425179500</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>8015446700</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>11261327400</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>15161538100</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>19234569400</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>24095156000</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>30333433600</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>35811189400</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>41786352800</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>48440821700</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>56563914100</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>154635200</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>630931000</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1700579900</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3267838500</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5435753500</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>8043993500</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>11377057100</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>14795678600</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>19185670000</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>24140656100</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>30517364500</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>35764523000</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>40464376900</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>48726419100</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>56645054100</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>146621600</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>651803300</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1666453500</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>3310533600</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>5432236600</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>8025671500</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>11419795500</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>15081229100</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>19177124200</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>24045839600</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>30360299700</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>35908501600</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>41227908800</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>48455764700</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>56276722200</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>155040400</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>654453500</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1682010400</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>3271694900</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>5447995700</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>8034886000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>11421180100</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>15132178000</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>19109110800</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>24298836100</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>30189468300</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>35882363500</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>41038466300</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>48694073900</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>57529567000</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>147750000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>644799200</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>1672224500</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3289267400</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>5379816300</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>7875106500</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>11302428400</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>14836213900</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>19248526400</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>24039458300</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>30462465400</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>35925585900</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>41489792800</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>48236582400</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>57532724100</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>150995400</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>647478100</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1684377400</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>3283341700</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>5429035700</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>8046799700</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>11265932300</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>15237929500</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>19181507900</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>24158343700</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>30026237300</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>36202677000</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>41094932700</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>49899858400</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>57739448500</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>157018400</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>643860000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>1686592100</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3269326100</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>5495344700</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>8077075600</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>11300785900</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>15047315700</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>19277065800</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>24109360000</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>30571490300</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>36410680700</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>41012534300</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>50860465300</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>57819026800</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>146707700</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>631595700</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>1680278900</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>3242142000</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>5267851500</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>8070859100</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>11315842900</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>15165717300</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>19401404400</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>23751405300</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>30274245400</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>36255809000</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>41159045400</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>51028646800</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>57586094400</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>156685900</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>619665700</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>1684969100</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3271789900</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>5431967900</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>7961207500</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>11176064900</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>15006952600</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>19499698100</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>23612951200</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>30266115600</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>36082905800</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>41658391000</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>50686171600</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>57700935000</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>147736100</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>647161500</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1670301700</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>3296815300</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>5451852300</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>8031218500</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>11225946100</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>15115564700</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>19488877200</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>24087255500</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>30458823900</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>36075802500</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>41046460900</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>50913299400</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>57337109200</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>153417200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>652359400</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1679257100</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>3307797000</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>5435833600</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>8039725200</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>11363868400</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>15207321100</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>19343684600</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>24182333100</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>30337291400</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>35912781800</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>41077749800</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>50683145200</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>57746303400</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>154718800</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>642828300</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1681345500</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>3275564300</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>5389003300</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>8059983800</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>11260883400</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>15080622400</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>19333082000</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>24091024800</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>30379738900</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>36451364100</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>42221635600</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>51137799100</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>57875614200</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>145208800</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>643615000</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1683861400</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>3293084300</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>5418479900</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>8023259900</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>11251025600</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>15189543200</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>19541500200</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>24307367200</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>30243323200</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>36101173700</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>42146635600</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>50877211600</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>57567996100</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>156442000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>634743500</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1645964400</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3269428200</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>5436580600</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>8049022900</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>11322977400</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>15172623400</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>19440960200</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>23885944300</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>30314051600</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>36632574900</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>42483416100</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>51324663800</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>57808764300</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>145024100</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>627256200</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1681314900</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>3268751000</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>5413182000</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>8263181000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>11368771300</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>15158527600</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>19040396900</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>24281822000</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>30389876200</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>36342041800</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>42543645400</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>50768746300</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>57630224600</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>154229400</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>612917100</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1683211200</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>3302508300</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>5363406000</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>8048675100</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>11323449000</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>15069965500</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>19132116200</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>24265225800</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>30355915500</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>36428816100</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>42447178500</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>51231803300</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>57279346200</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>144372700</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>652511700</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1670218900</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>3254562700</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>5378402000</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>10140759600</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>11532994500</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>15130232400</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>18871141300</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>24133927200</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>30480374000</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>36059500500</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>42390545500</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>51089886000</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>57384738400</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>144660900</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>649513300</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>1667358100</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>3300216400</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>5326323500</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>7975208000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>11511895700</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>15116913600</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>19108775400</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>24273329200</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>30087009800</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>36348970200</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>42539146900</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>49882609500</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>57158507300</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>150334100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>646826000</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1679120300</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>3222951500</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>5463353200</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>8092612300</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>11450558000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>14934997300</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>19174643000</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>23869128000</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>30379516700</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>36415543400</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>42851978100</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>48034516400</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>57577287300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B2:B41)</f>
+        <v>150569967.5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:P44" si="0">AVERAGE(C2:C41)</f>
+        <v>641403275</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1676885555</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>3282649190</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>5419191770</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>8080727285</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>11318668030</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>15112367682.5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>19268886697.5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>24094782492.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>30327774675</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>36136424737.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>41733899280</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>49279006737.5</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>57463566632.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <f>STDEV(B2:B41)</f>
+        <v>4550186.2001003139</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:P45" si="1">STDEV(C2:C41)</f>
+        <v>10406087.627571292</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>11396335.677075757</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>25750287.862357121</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>66539709.018959433</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>341336021.08942562</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>86744042.537722751</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>390467371.41657645</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>153688631.50921786</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>176309563.33075419</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>126510190.03378738</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>214759874.74473721</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>524408828.89544827</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>1114012103.1320574</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>355491677.45904529</v>
       </c>
     </row>
   </sheetData>
@@ -2517,1972 +3848,2262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>20-merge</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>30-merge</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>40-merge</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>50-merge</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>60-merge</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>70-merge</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>80-merge</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>90-merge</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>100-merge</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>110-merge</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>120-merge</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>130-merge</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>140-merge</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>150-merge</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2946700</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4427000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5596600</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>7297100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>9658000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10457400</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>12469400</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>13160800</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>15049800</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>15856100</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>18175300</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>19131600</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>24404500</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>22907600</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2784300</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4083300</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5704200</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>7450300</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>9269700</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>10510600</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>11572600</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>13651200</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>15491800</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>16081200</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>18479000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>19526900</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>24514900</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>23209600</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2760500</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4300200</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5687900</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>7418500</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>9181700</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>10430000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>11858600</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>13312400</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>15100400</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>16016100</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>18686400</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>19532200</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>24150000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>22863100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3088500</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4535000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6800100</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>7352300</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>9949100</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>10683100</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>12060100</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>13389800</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>15278000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>16438000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>18030700</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>19391300</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>24436000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>22820000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2832300</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4383800</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5677600</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7719100</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>9059200</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>10615600</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>11948700</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>13581500</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>15081900</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>15876300</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>18264300</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>19879800</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>24155500</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>22747700</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2771600</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4554600</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6220300</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>7258600</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9325200</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>10369200</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>12178000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>13532000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>15452800</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>16148200</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>18237900</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>19538300</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>24364200</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>22882100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3229200</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4586100</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5739700</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>7299600</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>9146900</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>10370400</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>11926500</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>13805300</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>15147000</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>15962100</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>18609400</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>19551600</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>24229300</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>23248900</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2626000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4547300</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5611500</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>7438900</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>9384500</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>10571700</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>12048300</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>14083400</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>15119100</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>16087700</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>17974000</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>19334200</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>24181700</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>23214300</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2743200</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4264000</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5554800</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7328300</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>9222200</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>10715100</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>12001800</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>13498500</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>15309600</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>16228300</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>17931400</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>19384800</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>24132100</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>22854800</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3143700</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4061900</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6204500</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>7059700</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>9240000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10753400</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>11515800</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>13507600</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>15408500</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>16033200</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>18263400</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>19357800</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>24397800</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>22620900</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2891400</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4393900</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>5619100</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>7576400</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>9137100</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>10559200</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>12044200</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>13587500</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>15501000</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>16438400</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>18352400</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>19407800</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>24044900</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>23055300</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2802200</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4222500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>5887900</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>7371000</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>9425800</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>10750700</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>11688600</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>14007300</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>15185200</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>16097800</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>18281700</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>19419000</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>24125600</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>23318400</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3201500</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4294500</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6330800</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>7601100</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>9422100</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>10391200</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>11734600</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>13569200</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>15040200</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>16132300</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>18295700</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>19444900</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>24569500</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>22881800</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2766300</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4135300</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5888700</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>7510700</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>9226500</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>10764700</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>11936000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>13735500</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>15037600</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>16317600</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>17989900</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>19245000</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>24276500</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>23433100</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2695300</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4277000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5663700</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>7549100</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>9039400</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>10615500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>12130700</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>13417500</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>14879600</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>16210400</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>19089500</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>19345600</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>23853900</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>22926300</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2697200</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4096200</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>5823700</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>7564500</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>9002100</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>10260600</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>11839800</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>13538100</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>15061000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>15982900</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>18036900</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>19262300</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>24293400</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>22986200</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2666000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4254900</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>5742200</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>7249800</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>9094000</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>10388100</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>12250900</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>13778300</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>15034400</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>16399700</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>18182300</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>19322900</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>24022000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>22807300</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3002200</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4249300</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>6069700</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>7644600</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>9332000</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>10634500</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>11765100</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>13609100</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>14896800</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>16485900</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>18467700</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>19349400</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>24211000</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>23136900</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2978200</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4109100</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5695400</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>7398100</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>9554700</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>10297000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>11979400</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>13449500</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>15144600</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>16935300</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>18080400</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>19288000</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>24202500</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>22964200</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2624700</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4199600</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5853100</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>7456200</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>9267200</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>10288700</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>12048300</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>13247600</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>15171400</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>16099900</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>18033400</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>19581300</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>24525200</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>22918900</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2666200</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4074700</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>6491300</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>7706600</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>9270400</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>10554800</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>12061100</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>13479200</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>14902300</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>16198600</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>18248800</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>19353800</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>24541900</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>23040900</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3043300</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4230400</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>5664100</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>7161800</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>9448300</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>10618300</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>11880900</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>13325500</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>15146400</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>16344400</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>18025700</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>20258600</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>24442400</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>23366500</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2562500</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4298200</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>5753800</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>7464500</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>9435800</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>10222900</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>11885200</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>13664400</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>15140500</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>16234600</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>17883500</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>19661300</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>24460300</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>22769900</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2762500</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4104200</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6236500</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>7506600</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>9264700</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>10091700</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>12099700</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>13531600</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>15300600</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>16901900</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>18250400</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>20369500</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>24432600</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>23175100</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2766400</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4094400</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5720500</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>7416100</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>9131400</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>10623700</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>12287600</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>13397000</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>15012100</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>16210100</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>18388100</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>19644700</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>24698500</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>23174500</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2692900</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4183700</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5866600</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>7458700</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>9223600</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>10219000</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>12250900</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>13401800</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>14820300</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>16264900</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>18259900</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>19491700</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>24205400</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>23570500</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2903600</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4079700</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6269600</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>7781500</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>9103500</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>10498900</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>12320200</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>13231100</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>15108600</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>16008200</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>18703200</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>19803700</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>24568700</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>23023000</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2740200</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5251200</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5757300</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>7424300</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>9257100</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>10509300</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>12012500</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>13299100</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>15799100</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>16153700</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>18250300</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>19789000</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>24474200</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>23212000</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2731600</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4159100</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5693700</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>7372900</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>9159000</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>10220500</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>12023300</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>13127200</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>15128000</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>16110500</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>18112600</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>19519400</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>24548900</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>22886300</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2740800</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4214700</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>5717100</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>7421800</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>9116100</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>10583800</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>11872000</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>13295600</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>15167300</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>16110700</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>18245500</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>19299300</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>24197100</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>22775700</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>3553400</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4244400</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6106900</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>7622100</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>9926800</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>10665500</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>12114000</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>13096900</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>15048800</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>16228400</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>18391400</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>19768100</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>23953600</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>23366000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2628800</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4473800</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5992100</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>7306700</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>8828700</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>10892000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>12888600</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>13538900</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>15178000</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>15937400</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>18196600</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>19486600</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>24271000</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>22592200</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2759400</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4285100</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>6884900</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>7512900</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>9291700</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>10650100</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>12197600</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>13180900</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>15177900</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>15881100</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>18450400</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>19555400</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>24097000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>23048100</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2750900</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4143400</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5674600</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>7524500</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>9255700</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>10761700</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>12129500</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>13722500</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>15266800</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>16004600</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>18139200</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>19914300</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>23859300</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>22823500</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2800400</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4501700</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>5926600</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>7485500</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>9088100</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>10402700</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>12518300</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>13374700</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>15595300</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>16111000</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>18281700</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>19692700</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>24337000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>23507900</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2667500</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4099500</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>5961800</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>7534800</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>8852800</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>10406700</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>11944000</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>13573700</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>15207000</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>15964500</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>18346100</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>20054900</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>23990500</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>23575800</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2740500</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4256300</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>5689500</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>7300500</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>9063300</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>10407200</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>12126100</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>13613000</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>15005200</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>16280700</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>18379200</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>19859100</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>24484500</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>22739800</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2852400</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4077700</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>5830300</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>7831500</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>9680600</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>10454300</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>12065800</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>13409700</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>15239700</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>16068400</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>17990400</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>20043300</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>24062000</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>22403100</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2724100</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4150800</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6265200</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>7184200</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>9288100</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>10344600</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>11565200</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>13524100</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>15208900</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>16153600</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>18275600</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>19821500</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>24181900</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>23064000</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2722100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4245400</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5637800</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>7555500</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>9083300</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>10607600</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>11726400</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>13546300</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>15181200</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>16086800</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>18178400</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>19914300</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>24380600</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>22942700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B2:B41)</f>
+        <v>2826512.5</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(C2:C41)</f>
+        <v>4278597.5</v>
+      </c>
+      <c r="D44">
+        <f>AVERAGE(D2:D41)</f>
+        <v>5912792.5</v>
+      </c>
+      <c r="E44">
+        <f>AVERAGE(E2:E41)</f>
+        <v>7452922.5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:O44" si="0">AVERAGE(F2:F41)</f>
+        <v>9267660</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>10504050</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>12024157.5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>13494882.5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>15175617.5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>16177037.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>18261467.5</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>19589897.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>24281947.5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>23021372.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <f>STDEV(B2:B41)</f>
+        <v>198477.78689572707</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:O45" si="1">STDEV(C2:C41)</f>
+        <v>218014.50020877522</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>320664.63701114157</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>165906.60252931621</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>239178.16747117994</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>183597.94144424415</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>264938.66623312008</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>217640.3618858296</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>196983.72689198569</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>231940.17540725609</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>235405.86488946909</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>286970.05426502571</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>209359.06462894721</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>270315.45009061601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3473F718-C436-43FE-801F-55E696777EC6}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>150569967.5</v>
+      </c>
+      <c r="C2">
+        <v>1567853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>641403275</v>
+      </c>
+      <c r="C3">
+        <v>2826512.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1676885555</v>
+      </c>
+      <c r="C4">
+        <v>4278597.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>3282649190</v>
+      </c>
+      <c r="C5">
+        <v>5912792.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>5419191770</v>
+      </c>
+      <c r="C6">
+        <v>7452922.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>8080727285</v>
+      </c>
+      <c r="C7">
+        <v>9267660</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>11318668030</v>
+      </c>
+      <c r="C8">
+        <v>10504050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>15112367682.5</v>
+      </c>
+      <c r="C9">
+        <v>12024157.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>19268886697.5</v>
+      </c>
+      <c r="C10">
+        <v>13494882.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>24094782492.5</v>
+      </c>
+      <c r="C11">
+        <v>15175617.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>30327774675</v>
+      </c>
+      <c r="C12">
+        <v>16177037.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>36136424737.5</v>
+      </c>
+      <c r="C13">
+        <v>18261467.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>41733899280</v>
+      </c>
+      <c r="C14">
+        <v>19589897.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>49279006737.5</v>
+      </c>
+      <c r="C15">
+        <v>24281947.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>57463566632.5</v>
+      </c>
+      <c r="C16">
+        <v>23021372.5</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ExcelFiles/EfficientSortTimes.xlsx
+++ b/ExcelFiles/EfficientSortTimes.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\GitHub\SortingAlg-Bubble-Merge\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E5864-CF9D-42F5-9A84-96BE047CABAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE5C154-9895-4AA2-B7A6-CF59E4E37C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bubble" sheetId="1" r:id="rId1"/>
     <sheet name="Merge" sheetId="2" r:id="rId2"/>
     <sheet name="Bubble-MergeAverage" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>10-bubble</t>
   </si>
@@ -69,6 +82,15 @@
     <t>150-bubble</t>
   </si>
   <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>DESVIO</t>
+  </si>
+  <si>
+    <t>10-merge</t>
+  </si>
+  <si>
     <t>20-merge</t>
   </si>
   <si>
@@ -111,23 +133,62 @@
     <t>150-merge</t>
   </si>
   <si>
-    <t>MEDIA</t>
-  </si>
-  <si>
-    <t>DESVIO</t>
-  </si>
-  <si>
     <t>Bubble</t>
   </si>
   <si>
     <t>Merge</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>60k</t>
+  </si>
+  <si>
+    <t>70k</t>
+  </si>
+  <si>
+    <t>80k</t>
+  </si>
+  <si>
+    <t>90k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>110k</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>130k</t>
+  </si>
+  <si>
+    <t>140k</t>
+  </si>
+  <si>
+    <t>150k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +208,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,13 +257,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -315,58 +391,57 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Bubble-MergeAverage'!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10k</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20k</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30k</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50k</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60k</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>90k</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100k</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>110k</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>120k</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>130k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>140k</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>150k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -456,58 +531,57 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Bubble-MergeAverage'!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10k</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20k</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30k</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40k</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50k</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>60k</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>70k</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80k</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>90k</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>100k</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>110k</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>120k</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>130k</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>140k</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>150k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -623,7 +697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316359711"/>
@@ -682,7 +756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="129366959"/>
@@ -724,7 +798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -761,12 +835,824 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Merge Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Merge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bubble-MergeAverage'!$A$1:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$C$1:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1567853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2826512.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4278597.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5912792.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7452922.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9267660</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10504050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12024157.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13494882.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15175617.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16177037.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18261467.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19589897.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24281947.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23021372.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1744-4340-9D8A-5BBC627F59F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1745501447"/>
+        <c:axId val="856221063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1745501447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="856221063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="856221063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745501447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bubble Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bubble</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bubble-MergeAverage'!$A$1:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60k</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70k</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110k</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120k</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140k</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bubble-MergeAverage'!$B$1:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150569967.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641403275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1676885555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3282649190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5419191770</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8080727285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11318668030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15112367682.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19268886697.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24094782492.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30327774675</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36136424737.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41733899280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49279006737.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57463566632.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5991-4E81-95B0-0A7DF6F7FAF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528820888"/>
+        <c:axId val="951511367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528820888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951511367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951511367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528820888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -812,6 +1698,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1328,20 +2294,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>566031</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>106009</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200554</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>182209</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1361,6 +3359,84 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49360081-64D0-242B-3F7C-EA50674E74B9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F19C9974-F748-434E-BA76-592F244DEE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D56C57-ED17-61EE-96FC-79350348451C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{49360081-64D0-242B-3F7C-EA50674E74B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1660,12 +3736,12 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +3788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1762,7 +3838,7 @@
         <v>57400827000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1812,7 +3888,7 @@
         <v>57341313000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1862,7 +3938,7 @@
         <v>57092039000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1912,7 +3988,7 @@
         <v>57220485800</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1962,7 +4038,7 @@
         <v>57230248500</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2012,7 +4088,7 @@
         <v>57287353000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2062,7 +4138,7 @@
         <v>57737348600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2112,7 +4188,7 @@
         <v>57672719600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2162,7 +4238,7 @@
         <v>57396999000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2212,7 +4288,7 @@
         <v>57615938100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2262,7 +4338,7 @@
         <v>57473076900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2312,7 +4388,7 @@
         <v>57802153200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2362,7 +4438,7 @@
         <v>57779852400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2412,7 +4488,7 @@
         <v>57675421400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2462,7 +4538,7 @@
         <v>57708409700</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2512,7 +4588,7 @@
         <v>57569418200</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2562,7 +4638,7 @@
         <v>57813039100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2612,7 +4688,7 @@
         <v>57868706500</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2662,7 +4738,7 @@
         <v>57552631600</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2712,7 +4788,7 @@
         <v>57418015500</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2762,7 +4838,7 @@
         <v>57127292000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2812,7 +4888,7 @@
         <v>56563914100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2862,7 +4938,7 @@
         <v>56645054100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2912,7 +4988,7 @@
         <v>56276722200</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2962,7 +5038,7 @@
         <v>57529567000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3012,7 +5088,7 @@
         <v>57532724100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3062,7 +5138,7 @@
         <v>57739448500</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3112,7 +5188,7 @@
         <v>57819026800</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3162,7 +5238,7 @@
         <v>57586094400</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3212,7 +5288,7 @@
         <v>57700935000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3262,7 +5338,7 @@
         <v>57337109200</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3312,7 +5388,7 @@
         <v>57746303400</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3362,7 +5438,7 @@
         <v>57875614200</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3412,7 +5488,7 @@
         <v>57567996100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3462,7 +5538,7 @@
         <v>57808764300</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3512,7 +5588,7 @@
         <v>57630224600</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3562,7 +5638,7 @@
         <v>57279346200</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3612,7 +5688,7 @@
         <v>57384738400</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3662,7 +5738,7 @@
         <v>57158507300</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3712,9 +5788,9 @@
         <v>57577287300</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B2:B41)</f>
@@ -3777,9 +5853,9 @@
         <v>57463566632.5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <f>STDEV(B2:B41)</f>
@@ -3849,2056 +5925,2187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:O44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:16">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <v>1671800</v>
+      </c>
+      <c r="C2">
         <v>2946700</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4427000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5596600</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7297100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9658000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10457400</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12469400</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13160800</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>15049800</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>15856100</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>18175300</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>19131600</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>24404500</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>22907600</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <v>2360800</v>
+      </c>
+      <c r="C3">
         <v>2784300</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4083300</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5704200</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7450300</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9269700</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10510600</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>11572600</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>13651200</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>15491800</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>16081200</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18479000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>19526900</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>24514900</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>23209600</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
+        <v>1970100</v>
+      </c>
+      <c r="C4">
         <v>2760500</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4300200</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5687900</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7418500</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9181700</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10430000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11858600</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13312400</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>15100400</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>16016100</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>18686400</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>19532200</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>24150000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>22863100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
+        <v>1606100</v>
+      </c>
+      <c r="C5">
         <v>3088500</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4535000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6800100</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7352300</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9949100</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10683100</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12060100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>13389800</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>15278000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>16438000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>18030700</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>19391300</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>24436000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>22820000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
+        <v>1367100</v>
+      </c>
+      <c r="C6">
         <v>2832300</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4383800</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5677600</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7719100</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9059200</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10615600</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>11948700</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13581500</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15081900</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15876300</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>18264300</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>19879800</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>24155500</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>22747700</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
+        <v>1934400</v>
+      </c>
+      <c r="C7">
         <v>2771600</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4554600</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6220300</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7258600</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9325200</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10369200</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12178000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>13532000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>15452800</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>16148200</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18237900</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>19538300</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>24364200</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>22882100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <v>1447100</v>
+      </c>
+      <c r="C8">
         <v>3229200</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4586100</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5739700</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7299600</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9146900</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10370400</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11926500</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13805300</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15147000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>15962100</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>18609400</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>19551600</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>24229300</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>23248900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
+        <v>1277800</v>
+      </c>
+      <c r="C9">
         <v>2626000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4547300</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5611500</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7438900</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9384500</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10571700</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>12048300</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14083400</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>15119100</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>16087700</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>17974000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>19334200</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>24181700</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>23214300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
+        <v>1471200</v>
+      </c>
+      <c r="C10">
         <v>2743200</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4264000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5554800</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7328300</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9222200</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10715100</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>12001800</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13498500</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>15309600</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>16228300</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>17931400</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>19384800</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>24132100</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>22854800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
+        <v>1766200</v>
+      </c>
+      <c r="C11">
         <v>3143700</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4061900</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6204500</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7059700</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9240000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10753400</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>11515800</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>13507600</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>15408500</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>16033200</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>18263400</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>19357800</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>24397800</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>22620900</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <v>1625500</v>
+      </c>
+      <c r="C12">
         <v>2891400</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4393900</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5619100</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7576400</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9137100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10559200</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12044200</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>13587500</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>15501000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>16438400</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>18352400</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>19407800</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>24044900</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>23055300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
+        <v>1278700</v>
+      </c>
+      <c r="C13">
         <v>2802200</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4222500</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5887900</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7371000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9425800</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10750700</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11688600</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>14007300</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15185200</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>16097800</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>18281700</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>19419000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>24125600</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>23318400</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
+        <v>1726300</v>
+      </c>
+      <c r="C14">
         <v>3201500</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4294500</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6330800</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7601100</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9422100</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10391200</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11734600</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13569200</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15040200</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>16132300</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18295700</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>19444900</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>24569500</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>22881800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
+        <v>1453500</v>
+      </c>
+      <c r="C15">
         <v>2766300</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4135300</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5888700</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>7510700</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>9226500</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10764700</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11936000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>13735500</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>15037600</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16317600</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>17989900</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>19245000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>24276500</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>23433100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
+        <v>1254100</v>
+      </c>
+      <c r="C16">
         <v>2695300</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4277000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5663700</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7549100</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9039400</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10615500</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12130700</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>13417500</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>14879600</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>16210400</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>19089500</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>19345600</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>23853900</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22926300</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
+        <v>1411900</v>
+      </c>
+      <c r="C17">
         <v>2697200</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4096200</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5823700</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7564500</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>9002100</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10260600</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>11839800</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13538100</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>15061000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>15982900</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>18036900</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>19262300</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>24293400</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>22986200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
+        <v>1268100</v>
+      </c>
+      <c r="C18">
         <v>2666000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4254900</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5742200</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7249800</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9094000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10388100</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12250900</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13778300</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15034400</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>16399700</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>18182300</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>19322900</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>24022000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>22807300</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
+        <v>1705500</v>
+      </c>
+      <c r="C19">
         <v>3002200</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4249300</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>6069700</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7644600</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9332000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10634500</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>11765100</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>13609100</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>14896800</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>16485900</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>18467700</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>19349400</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>24211000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>23136900</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="C20">
         <v>2978200</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4109100</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5695400</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7398100</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9554700</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10297000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>11979400</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13449500</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>15144600</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>16935300</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>18080400</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>19288000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>24202500</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>22964200</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
+        <v>1353900</v>
+      </c>
+      <c r="C21">
         <v>2624700</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4199600</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5853100</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7456200</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9267200</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>10288700</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12048300</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>13247600</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>15171400</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>16099900</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18033400</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>19581300</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>24525200</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>22918900</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
+        <v>1501000</v>
+      </c>
+      <c r="C22">
         <v>2666200</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4074700</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6491300</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7706600</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9270400</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10554800</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>12061100</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>13479200</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>14902300</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>16198600</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>18248800</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>19353800</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>24541900</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>23040900</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
+        <v>1421100</v>
+      </c>
+      <c r="C23">
         <v>3043300</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>4230400</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5664100</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7161800</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9448300</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>10618300</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>11880900</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13325500</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>15146400</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>16344400</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>18025700</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>20258600</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>24442400</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>23366500</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
+        <v>1751200</v>
+      </c>
+      <c r="C24">
         <v>2562500</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4298200</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5753800</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>7464500</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>9435800</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>10222900</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11885200</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13664400</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>15140500</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>16234600</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>17883500</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>19661300</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>24460300</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>22769900</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
+        <v>1546300</v>
+      </c>
+      <c r="C25">
         <v>2762500</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4104200</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6236500</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7506600</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>9264700</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10091700</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>12099700</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>13531600</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>15300600</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>16901900</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>18250400</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>20369500</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>24432600</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>23175100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
+        <v>1768900</v>
+      </c>
+      <c r="C26">
         <v>2766400</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4094400</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5720500</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7416100</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>9131400</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10623700</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>12287600</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>13397000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>15012100</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>16210100</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>18388100</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>19644700</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>24698500</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>23174500</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
+        <v>1545300</v>
+      </c>
+      <c r="C27">
         <v>2692900</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4183700</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5866600</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7458700</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>9223600</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>10219000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>12250900</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>13401800</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>14820300</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>16264900</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>18259900</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>19491700</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>24205400</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>23570500</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
+        <v>1961900</v>
+      </c>
+      <c r="C28">
         <v>2903600</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4079700</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6269600</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7781500</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>9103500</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>10498900</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>12320200</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>13231100</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>15108600</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>16008200</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>18703200</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>19803700</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>24568700</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>23023000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
+        <v>1795700</v>
+      </c>
+      <c r="C29">
         <v>2740200</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5251200</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5757300</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7424300</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>9257100</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>10509300</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12012500</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>13299100</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>15799100</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>16153700</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>18250300</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>19789000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>24474200</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>23212000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
+        <v>1559600</v>
+      </c>
+      <c r="C30">
         <v>2731600</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4159100</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5693700</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7372900</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>9159000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>10220500</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12023300</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>13127200</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>15128000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>16110500</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>18112600</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>19519400</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>24548900</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>22886300</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
+        <v>1474200</v>
+      </c>
+      <c r="C31">
         <v>2740800</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4214700</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5717100</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7421800</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>9116100</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>10583800</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11872000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>13295600</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>15167300</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>16110700</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>18245500</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>19299300</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>24197100</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>22775700</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
+        <v>1449600</v>
+      </c>
+      <c r="C32">
         <v>3553400</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>4244400</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>6106900</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7622100</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>9926800</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>10665500</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12114000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>13096900</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>15048800</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>16228400</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>18391400</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>19768100</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>23953600</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>23366000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
+        <v>1277400</v>
+      </c>
+      <c r="C33">
         <v>2628800</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>4473800</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>5992100</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7306700</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8828700</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>10892000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>12888600</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>13538900</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>15178000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>15937400</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>18196600</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>19486600</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>24271000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>22592200</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
+        <v>1264700</v>
+      </c>
+      <c r="C34">
         <v>2759400</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>4285100</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>6884900</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7512900</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9291700</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>10650100</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>12197600</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>13180900</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>15177900</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>15881100</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>18450400</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>19555400</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>24097000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>23048100</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
+        <v>1342800</v>
+      </c>
+      <c r="C35">
         <v>2750900</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>4143400</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>5674600</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>7524500</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9255700</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>10761700</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>12129500</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>13722500</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>15266800</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>16004600</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>18139200</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>19914300</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>23859300</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>22823500</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
+        <v>1671200</v>
+      </c>
+      <c r="C36">
         <v>2800400</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4501700</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>5926600</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7485500</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>9088100</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>10402700</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>12518300</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>13374700</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>15595300</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>16111000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>18281700</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>19692700</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>24337000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>23507900</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
+        <v>1535100</v>
+      </c>
+      <c r="C37">
         <v>2667500</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>4099500</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5961800</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7534800</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8852800</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>10406700</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>11944000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>13573700</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>15207000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>15964500</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>18346100</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>20054900</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>23990500</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>23575800</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
+        <v>1630900</v>
+      </c>
+      <c r="C38">
         <v>2740500</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>4256300</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>5689500</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7300500</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9063300</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>10407200</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>12126100</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>13613000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>15005200</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>16280700</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>18379200</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>19859100</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>24484500</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>22739800</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
+        <v>1300600</v>
+      </c>
+      <c r="C39">
         <v>2852400</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>4077700</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5830300</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7831500</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>9680600</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10454300</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>12065800</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>13409700</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>15239700</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>16068400</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>17990400</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>20043300</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>24062000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>22403100</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
+        <v>1407600</v>
+      </c>
+      <c r="C40">
         <v>2724100</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>4150800</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>6265200</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7184200</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>9288100</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>10344600</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>11565200</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>13524100</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>15208900</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>16153600</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>18275600</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>19821500</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>24181900</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>23064000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
+        <v>1575400</v>
+      </c>
+      <c r="C41">
         <v>2722100</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4245400</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>5637800</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7555500</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>9083300</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>10607600</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>11726400</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>13546300</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>15181200</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>16086800</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>18178400</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>19914300</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>24380600</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>22942700</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B2:B41)</f>
-        <v>2826512.5</v>
+        <v>1558765</v>
       </c>
       <c r="C44">
         <f>AVERAGE(C2:C41)</f>
-        <v>4278597.5</v>
+        <v>2826512.5</v>
       </c>
       <c r="D44">
         <f>AVERAGE(D2:D41)</f>
-        <v>5912792.5</v>
+        <v>4278597.5</v>
       </c>
       <c r="E44">
         <f>AVERAGE(E2:E41)</f>
+        <v>5912792.5</v>
+      </c>
+      <c r="F44">
+        <f>AVERAGE(F2:F41)</f>
         <v>7452922.5</v>
       </c>
-      <c r="F44">
-        <f t="shared" ref="F44:O44" si="0">AVERAGE(F2:F41)</f>
+      <c r="G44">
+        <f t="shared" ref="G44:P44" si="0">AVERAGE(G2:G41)</f>
         <v>9267660</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>10504050</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>12024157.5</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>13494882.5</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="0"/>
         <v>15175617.5</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>16177037.5</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f t="shared" si="0"/>
         <v>18261467.5</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <f t="shared" si="0"/>
         <v>19589897.5</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <f t="shared" si="0"/>
         <v>24281947.5</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <f t="shared" si="0"/>
         <v>23021372.5</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <f>STDEV(B2:B41)</f>
+        <v>237378.05457723298</v>
+      </c>
+      <c r="C45">
+        <f>STDEV(C2:C41)</f>
         <v>198477.78689572707</v>
       </c>
-      <c r="C45">
-        <f t="shared" ref="C45:O45" si="1">STDEV(C2:C41)</f>
+      <c r="D45">
+        <f t="shared" ref="D45:P45" si="1">STDEV(D2:D41)</f>
         <v>218014.50020877522</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>320664.63701114157</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>165906.60252931621</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>239178.16747117994</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>183597.94144424415</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>264938.66623312008</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="1"/>
         <v>217640.3618858296</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>196983.72689198569</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>231940.17540725609</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f t="shared" si="1"/>
         <v>235405.86488946909</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <f t="shared" si="1"/>
         <v>286970.05426502571</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <f t="shared" si="1"/>
         <v>209359.06462894721</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <f t="shared" si="1"/>
         <v>270315.45009061601</v>
       </c>
@@ -5910,31 +8117,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3473F718-C436-43FE-801F-55E696777EC6}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
       <c r="B2">
         <v>150569967.5</v>
@@ -5943,9 +8150,9 @@
         <v>1567853</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3">
         <v>641403275</v>
@@ -5954,9 +8161,9 @@
         <v>2826512.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>30</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1676885555</v>
@@ -5964,10 +8171,11 @@
       <c r="C4">
         <v>4278597.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>40</v>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5">
         <v>3282649190</v>
@@ -5976,9 +8184,9 @@
         <v>5912792.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6">
         <v>5419191770</v>
@@ -5987,9 +8195,9 @@
         <v>7452922.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>39</v>
       </c>
       <c r="B7">
         <v>8080727285</v>
@@ -5997,11 +8205,10 @@
       <c r="C7">
         <v>9267660</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>70</v>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
       <c r="B8">
         <v>11318668030</v>
@@ -6010,9 +8217,9 @@
         <v>10504050</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>80</v>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>41</v>
       </c>
       <c r="B9">
         <v>15112367682.5</v>
@@ -6020,10 +8227,11 @@
       <c r="C9">
         <v>12024157.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>90</v>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>42</v>
       </c>
       <c r="B10">
         <v>19268886697.5</v>
@@ -6032,9 +8240,9 @@
         <v>13494882.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>100</v>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>43</v>
       </c>
       <c r="B11">
         <v>24094782492.5</v>
@@ -6043,9 +8251,9 @@
         <v>15175617.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>110</v>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
         <v>30327774675</v>
@@ -6054,9 +8262,9 @@
         <v>16177037.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>120</v>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>45</v>
       </c>
       <c r="B13">
         <v>36136424737.5</v>
@@ -6065,9 +8273,9 @@
         <v>18261467.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>130</v>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>46</v>
       </c>
       <c r="B14">
         <v>41733899280</v>
@@ -6076,9 +8284,9 @@
         <v>19589897.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>140</v>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
       <c r="B15">
         <v>49279006737.5</v>
@@ -6087,9 +8295,9 @@
         <v>24281947.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>150</v>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
       </c>
       <c r="B16">
         <v>57463566632.5</v>
@@ -6098,8 +8306,11 @@
         <v>23021372.5</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12">
       <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ExcelFiles/EfficientSortTimes.xlsx
+++ b/ExcelFiles/EfficientSortTimes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Documents\GitHub\SortingAlg-Bubble-Merge\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE5C154-9895-4AA2-B7A6-CF59E4E37C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5530CFFA-B764-463B-88A7-6452D6F15CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,10 +262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -267,8 +276,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,7 +460,7 @@
             <c:numRef>
               <c:f>'Bubble-MergeAverage'!$B$2:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>150569967.5</c:v>
@@ -590,7 +603,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1567853</c:v>
+                  <c:v>1558765</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2826512.5</c:v>
@@ -629,7 +642,7 @@
                   <c:v>19589897.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24281947.5</c:v>
+                  <c:v>21591675</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>23021372.5</c:v>
@@ -728,7 +741,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1003,7 +1016,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1567853</c:v>
+                  <c:v>1558765</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2826512.5</c:v>
@@ -1042,7 +1055,7 @@
                   <c:v>19589897.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24281947.5</c:v>
+                  <c:v>21591675</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>23021372.5</c:v>
@@ -1402,9 +1415,9 @@
             <c:numRef>
               <c:f>'Bubble-MergeAverage'!$B$1:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3331,13 +3344,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3732,13 +3745,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3792,49 +3807,49 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>151522300</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>647285500</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>1685775900</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>3294704700</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>5400546000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>8126174800</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>11233643400</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>15064650900</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>19435116000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>24005996200</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>30284265700</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>36061384900</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <v>41729748700</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>48833987500</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="7">
         <v>57400827000</v>
       </c>
     </row>
@@ -3842,49 +3857,49 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>156395400</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>623469900</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>1656746400</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>3244835900</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>5429650400</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>8100276800</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>11335540200</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>14744038400</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>19533859200</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>23922483700</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>30428500200</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>36294447200</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="7">
         <v>41865188900</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>48551183700</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>57341313000</v>
       </c>
     </row>
@@ -3892,49 +3907,49 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>144792900</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>642773800</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>1668076200</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>3186248000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>5342471900</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>7954393300</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>11286012600</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>14967301700</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>19267343000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>23663847200</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>30190390000</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>36242788600</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>41968851900</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>48505410200</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>57092039000</v>
       </c>
     </row>
@@ -3942,49 +3957,49 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>154929200</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>646608100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>1684140000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>3302625300</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>5446971600</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>8002667100</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>11178295600</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>14961235800</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>19343979800</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>24234664000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>30305633300</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>36228354500</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <v>41965527700</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>48253383700</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>57220485800</v>
       </c>
     </row>
@@ -3992,49 +4007,49 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>146078300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>647526600</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>1675172200</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>3313086500</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>5410097700</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>8107150200</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>11220935900</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>14917129800</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>19368184400</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>24427428700</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>30399310000</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>36240144500</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <v>41927962600</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>49014752300</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>57230248500</v>
       </c>
     </row>
@@ -4042,49 +4057,49 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>150310500</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>650905400</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>1672833800</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>3300829900</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>5435341200</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>8061761000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>11289552400</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>14706284900</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>19151045400</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>24143652300</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>30251766000</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>35963836400</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>41766099800</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>48478855900</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>57287353000</v>
       </c>
     </row>
@@ -4092,49 +4107,49 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>155753700</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>639691500</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>1683736700</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>3289953100</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>5240987600</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>7949834400</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>11141273000</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>14999974600</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>19379548600</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>24238193900</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>30420386500</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>36182876200</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>42008845900</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>48780482000</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>57737348600</v>
       </c>
     </row>
@@ -4142,49 +4157,49 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>145758100</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>638845900</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>1661871600</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>3280429700</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>5361710600</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>8044542800</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>11333856300</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>14976131700</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>19153023000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>24042679100</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>30256295600</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>35931255700</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>41778114500</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>48270109100</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>57672719600</v>
       </c>
     </row>
@@ -4192,49 +4207,49 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>156846800</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>625577300</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>1686914200</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>3291517300</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>5324094100</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>8006440200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>11285657300</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>15004032900</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>19139120500</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>24015251900</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>30480035500</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="7">
         <v>36322808800</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <v>42045420600</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>48733147000</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>57396999000</v>
       </c>
     </row>
@@ -4242,49 +4257,49 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>146518500</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>652540400</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>1671081600</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>3300218800</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>5455920200</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>8064611700</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>11275274300</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>17380224500</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>19426263000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>24268643700</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>30313343200</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <v>35870390000</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <v>41662116600</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>48712430300</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>57615938100</v>
       </c>
     </row>
@@ -4292,49 +4307,49 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>155653500</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>651817800</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>1684355900</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>3311965300</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>5355347000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>8019685300</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>11198703000</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>15134767200</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>19271623800</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>24214617700</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>30299013500</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <v>36318140700</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="7">
         <v>42096044500</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>48613028900</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>57473076900</v>
       </c>
     </row>
@@ -4342,49 +4357,49 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>147355100</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>649918700</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>1686721500</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>3279441800</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>5427546300</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>7921025500</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>11401879600</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>15098497700</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>19144855500</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>24027389800</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>30382079900</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>36044384500</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="7">
         <v>41621542500</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="7">
         <v>48631497100</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>57802153200</v>
       </c>
     </row>
@@ -4392,49 +4407,49 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>147203700</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>644486900</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>1678664200</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>3285393100</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>5503409500</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>8001486100</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>11417568400</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>15173107700</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>19141198800</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>24224581100</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>30148778300</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>36245977800</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="7">
         <v>41904881700</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>48934407400</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>57779852400</v>
       </c>
     </row>
@@ -4442,49 +4457,49 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>155118700</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>646784400</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>1666797900</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>3302801000</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>5547573900</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>8023359100</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>11423345300</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>15286342200</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>19316623400</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>24104674500</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>30413177900</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="7">
         <v>36178203300</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="7">
         <v>42048730300</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <v>48285946300</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>57675421400</v>
       </c>
     </row>
@@ -4492,49 +4507,49 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>146487100</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>631394400</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>1680482500</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>3289455400</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>5474831900</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>8032072300</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>11345958500</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>15160712600</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>19258799300</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>24084264800</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>30266078000</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>36254413100</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="7">
         <v>41454984400</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="7">
         <v>48588390000</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>57708409700</v>
       </c>
     </row>
@@ -4542,49 +4557,49 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>156586400</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>630258500</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>1683679100</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>3304407900</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>5468262700</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>7903998200</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>11311705100</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>14962685700</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>19473576000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>24102408100</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>30394022200</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>36209206400</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>41808179300</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>48583965700</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>57569418200</v>
       </c>
     </row>
@@ -4592,49 +4607,49 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>146750600</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>631941100</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>1645767500</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>3303413300</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>5511578600</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>8061480100</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>11280974500</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>15067390700</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>19070413600</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>23861672400</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>30410883900</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>35938943300</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="7">
         <v>41548408800</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>48266452200</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="7">
         <v>57813039100</v>
       </c>
     </row>
@@ -4642,49 +4657,49 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>154404400</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>646994700</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>1685200900</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>3287349000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>5489643700</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>8011701300</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>11353464900</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>14963741800</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>19226053500</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>24278195900</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="7">
         <v>30162064400</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>36294258500</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>41475562600</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>48748522900</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="7">
         <v>57868706500</v>
       </c>
     </row>
@@ -4692,49 +4707,49 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>146881600</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>653235200</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>1691361100</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>3311021700</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>5504607200</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>7861945800</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>11301173100</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>15165695000</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>19091291100</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>24012481100</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>30355438900</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>35880736400</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="7">
         <v>40917129200</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>48228955900</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="7">
         <v>57552631600</v>
       </c>
     </row>
@@ -4742,49 +4757,49 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>144716500</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>647523200</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>1678991200</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>3281726900</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>5496376600</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>8055010300</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>11355785900</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>14977176700</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>19345400600</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>24223385500</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>30035008200</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>36035766200</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="7">
         <v>41802860000</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>48472355200</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>57418015500</v>
       </c>
     </row>
@@ -4792,49 +4807,49 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>154289900</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>642532200</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>1663355300</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>3264923800</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>5319104300</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>8044782700</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>11323338000</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>15142520800</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>19428295400</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>24065424700</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="7">
         <v>30487474500</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="7">
         <v>35705867600</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="7">
         <v>41279577300</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="7">
         <v>48700521700</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="7">
         <v>57127292000</v>
       </c>
     </row>
@@ -4842,49 +4857,49 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>146846800</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>629701000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>1684257200</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>3282006100</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>5425179500</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>8015446700</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>11261327400</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>15161538100</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>19234569400</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>24095156000</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="7">
         <v>30333433600</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="7">
         <v>35811189400</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="7">
         <v>41786352800</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="7">
         <v>48440821700</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="7">
         <v>56563914100</v>
       </c>
     </row>
@@ -4892,49 +4907,49 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>154635200</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>630931000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>1700579900</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>3267838500</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>5435753500</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>8043993500</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>11377057100</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>14795678600</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>19185670000</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>24140656100</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="7">
         <v>30517364500</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>35764523000</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="7">
         <v>40464376900</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="7">
         <v>48726419100</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="7">
         <v>56645054100</v>
       </c>
     </row>
@@ -4942,49 +4957,49 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>146621600</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>651803300</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>1666453500</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>3310533600</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>5432236600</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>8025671500</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>11419795500</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>15081229100</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>19177124200</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>24045839600</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="7">
         <v>30360299700</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="7">
         <v>35908501600</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="7">
         <v>41227908800</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="7">
         <v>48455764700</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="7">
         <v>56276722200</v>
       </c>
     </row>
@@ -4992,49 +5007,49 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>155040400</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>654453500</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>1682010400</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>3271694900</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>5447995700</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>8034886000</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>11421180100</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>15132178000</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>19109110800</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>24298836100</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="7">
         <v>30189468300</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="7">
         <v>35882363500</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="7">
         <v>41038466300</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="7">
         <v>48694073900</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="7">
         <v>57529567000</v>
       </c>
     </row>
@@ -5042,49 +5057,49 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>147750000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>644799200</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>1672224500</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>3289267400</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>5379816300</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>7875106500</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>11302428400</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <v>14836213900</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>19248526400</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <v>24039458300</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="7">
         <v>30462465400</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="7">
         <v>35925585900</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="7">
         <v>41489792800</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="7">
         <v>48236582400</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="7">
         <v>57532724100</v>
       </c>
     </row>
@@ -5092,49 +5107,49 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>150995400</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>647478100</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>1684377400</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>3283341700</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>5429035700</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>8046799700</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>11265932300</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="7">
         <v>15237929500</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="7">
         <v>19181507900</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="7">
         <v>24158343700</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="7">
         <v>30026237300</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="7">
         <v>36202677000</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="7">
         <v>41094932700</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="7">
         <v>49899858400</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="7">
         <v>57739448500</v>
       </c>
     </row>
@@ -5142,49 +5157,49 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>157018400</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>643860000</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>1686592100</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>3269326100</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>5495344700</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <v>8077075600</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>11300785900</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="7">
         <v>15047315700</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="7">
         <v>19277065800</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="7">
         <v>24109360000</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="7">
         <v>30571490300</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="7">
         <v>36410680700</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="7">
         <v>41012534300</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="7">
         <v>50860465300</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="7">
         <v>57819026800</v>
       </c>
     </row>
@@ -5192,49 +5207,49 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>146707700</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>631595700</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>1680278900</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>3242142000</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>5267851500</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <v>8070859100</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>11315842900</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="7">
         <v>15165717300</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="7">
         <v>19401404400</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="7">
         <v>23751405300</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="7">
         <v>30274245400</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="7">
         <v>36255809000</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="7">
         <v>41159045400</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="7">
         <v>51028646800</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="7">
         <v>57586094400</v>
       </c>
     </row>
@@ -5242,49 +5257,49 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>156685900</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>619665700</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>1684969100</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>3271789900</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>5431967900</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <v>7961207500</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <v>11176064900</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="7">
         <v>15006952600</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="7">
         <v>19499698100</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="7">
         <v>23612951200</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="7">
         <v>30266115600</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="7">
         <v>36082905800</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="7">
         <v>41658391000</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="7">
         <v>50686171600</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="7">
         <v>57700935000</v>
       </c>
     </row>
@@ -5292,49 +5307,49 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>147736100</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>647161500</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>1670301700</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>3296815300</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>5451852300</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>8031218500</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>11225946100</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="7">
         <v>15115564700</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="7">
         <v>19488877200</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="7">
         <v>24087255500</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="7">
         <v>30458823900</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="7">
         <v>36075802500</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="7">
         <v>41046460900</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="7">
         <v>50913299400</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="7">
         <v>57337109200</v>
       </c>
     </row>
@@ -5342,49 +5357,49 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>153417200</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>652359400</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>1679257100</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>3307797000</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <v>5435833600</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <v>8039725200</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>11363868400</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7">
         <v>15207321100</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <v>19343684600</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="7">
         <v>24182333100</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="7">
         <v>30337291400</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="7">
         <v>35912781800</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="7">
         <v>41077749800</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="7">
         <v>50683145200</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="7">
         <v>57746303400</v>
       </c>
     </row>
@@ -5392,49 +5407,49 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>154718800</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>642828300</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
         <v>1681345500</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>3275564300</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <v>5389003300</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <v>8059983800</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>11260883400</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="7">
         <v>15080622400</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <v>19333082000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="7">
         <v>24091024800</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="7">
         <v>30379738900</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="7">
         <v>36451364100</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="7">
         <v>42221635600</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="7">
         <v>51137799100</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="7">
         <v>57875614200</v>
       </c>
     </row>
@@ -5442,49 +5457,49 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>145208800</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>643615000</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="7">
         <v>1683861400</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>3293084300</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <v>5418479900</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>8023259900</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>11251025600</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="7">
         <v>15189543200</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="7">
         <v>19541500200</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="7">
         <v>24307367200</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="7">
         <v>30243323200</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="7">
         <v>36101173700</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="7">
         <v>42146635600</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="7">
         <v>50877211600</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="7">
         <v>57567996100</v>
       </c>
     </row>
@@ -5492,49 +5507,49 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>156442000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>634743500</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
         <v>1645964400</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>3269428200</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <v>5436580600</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <v>8049022900</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>11322977400</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="7">
         <v>15172623400</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="7">
         <v>19440960200</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="7">
         <v>23885944300</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="7">
         <v>30314051600</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="7">
         <v>36632574900</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="7">
         <v>42483416100</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="7">
         <v>51324663800</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="7">
         <v>57808764300</v>
       </c>
     </row>
@@ -5542,49 +5557,49 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>145024100</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>627256200</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>1681314900</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>3268751000</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <v>5413182000</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <v>8263181000</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>11368771300</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="7">
         <v>15158527600</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="7">
         <v>19040396900</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="7">
         <v>24281822000</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="7">
         <v>30389876200</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="7">
         <v>36342041800</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="7">
         <v>42543645400</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="7">
         <v>50768746300</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="7">
         <v>57630224600</v>
       </c>
     </row>
@@ -5592,49 +5607,49 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>154229400</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>612917100</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
         <v>1683211200</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="7">
         <v>3302508300</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>5363406000</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>8048675100</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>11323449000</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="7">
         <v>15069965500</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="7">
         <v>19132116200</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="7">
         <v>24265225800</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="7">
         <v>30355915500</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="7">
         <v>36428816100</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="7">
         <v>42447178500</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="7">
         <v>51231803300</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="7">
         <v>57279346200</v>
       </c>
     </row>
@@ -5642,49 +5657,49 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>144372700</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>652511700</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>1670218900</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>3254562700</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <v>5378402000</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>10140759600</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>11532994500</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="7">
         <v>15130232400</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="7">
         <v>18871141300</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="7">
         <v>24133927200</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="7">
         <v>30480374000</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="7">
         <v>36059500500</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="7">
         <v>42390545500</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="7">
         <v>51089886000</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="7">
         <v>57384738400</v>
       </c>
     </row>
@@ -5692,49 +5707,49 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>144660900</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>649513300</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="7">
         <v>1667358100</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <v>3300216400</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="7">
         <v>5326323500</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>7975208000</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>11511895700</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="7">
         <v>15116913600</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="7">
         <v>19108775400</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="7">
         <v>24273329200</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="7">
         <v>30087009800</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="7">
         <v>36348970200</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="7">
         <v>42539146900</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="7">
         <v>49882609500</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="7">
         <v>57158507300</v>
       </c>
     </row>
@@ -5742,113 +5757,147 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>150334100</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>646826000</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="7">
         <v>1679120300</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <v>3222951500</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>5463353200</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>8092612300</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>11450558000</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="7">
         <v>14934997300</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="7">
         <v>19174643000</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="7">
         <v>23869128000</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="7">
         <v>30379516700</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="7">
         <v>36415543400</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="7">
         <v>42851978100</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="7">
         <v>48034516400</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="7">
         <v>57577287300</v>
       </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <f>AVERAGE(B2:B41)</f>
         <v>150569967.5</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="7">
         <f t="shared" ref="C44:P44" si="0">AVERAGE(C2:C41)</f>
         <v>641403275</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
         <f t="shared" si="0"/>
         <v>1676885555</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>3282649190</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="7">
         <f t="shared" si="0"/>
         <v>5419191770</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="7">
         <f t="shared" si="0"/>
         <v>8080727285</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
         <v>11318668030</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>15112367682.5</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="7">
         <f t="shared" si="0"/>
         <v>19268886697.5</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="7">
         <f t="shared" si="0"/>
         <v>24094782492.5</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="7">
         <f t="shared" si="0"/>
         <v>30327774675</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="7">
         <f t="shared" si="0"/>
         <v>36136424737.5</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="7">
         <f t="shared" si="0"/>
         <v>41733899280</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="7">
         <f t="shared" si="0"/>
         <v>49279006737.5</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="7">
         <f t="shared" si="0"/>
         <v>57463566632.5</v>
       </c>
@@ -5857,63 +5906,63 @@
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <f>STDEV(B2:B41)</f>
         <v>4550186.2001003139</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <f t="shared" ref="C45:P45" si="1">STDEV(C2:C41)</f>
         <v>10406087.627571292</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
         <f t="shared" si="1"/>
         <v>11396335.677075757</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="7">
         <f t="shared" si="1"/>
         <v>25750287.862357121</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="7">
         <f t="shared" si="1"/>
         <v>66539709.018959433</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="7">
         <f t="shared" si="1"/>
         <v>341336021.08942562</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <f t="shared" si="1"/>
         <v>86744042.537722751</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="7">
         <f t="shared" si="1"/>
         <v>390467371.41657645</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="7">
         <f t="shared" si="1"/>
         <v>153688631.50921786</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="7">
         <f t="shared" si="1"/>
         <v>176309563.33075419</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="7">
         <f t="shared" si="1"/>
         <v>126510190.03378738</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="7">
         <f t="shared" si="1"/>
         <v>214759874.74473721</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="7">
         <f t="shared" si="1"/>
         <v>524408828.89544827</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="7">
         <f t="shared" si="1"/>
         <v>1114012103.1320574</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="7">
         <f t="shared" si="1"/>
         <v>355491677.45904529</v>
       </c>
@@ -5927,11 +5976,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="3" t="s">
@@ -6024,7 +6076,7 @@
         <v>19131600</v>
       </c>
       <c r="O2">
-        <v>24404500</v>
+        <v>21480600</v>
       </c>
       <c r="P2">
         <v>22907600</v>
@@ -6074,7 +6126,7 @@
         <v>19526900</v>
       </c>
       <c r="O3">
-        <v>24514900</v>
+        <v>20787000</v>
       </c>
       <c r="P3">
         <v>23209600</v>
@@ -6124,7 +6176,7 @@
         <v>19532200</v>
       </c>
       <c r="O4">
-        <v>24150000</v>
+        <v>21484700</v>
       </c>
       <c r="P4">
         <v>22863100</v>
@@ -6174,7 +6226,7 @@
         <v>19391300</v>
       </c>
       <c r="O5">
-        <v>24436000</v>
+        <v>21369100</v>
       </c>
       <c r="P5">
         <v>22820000</v>
@@ -6224,7 +6276,7 @@
         <v>19879800</v>
       </c>
       <c r="O6">
-        <v>24155500</v>
+        <v>21378800</v>
       </c>
       <c r="P6">
         <v>22747700</v>
@@ -6274,7 +6326,7 @@
         <v>19538300</v>
       </c>
       <c r="O7">
-        <v>24364200</v>
+        <v>21728700</v>
       </c>
       <c r="P7">
         <v>22882100</v>
@@ -6324,7 +6376,7 @@
         <v>19551600</v>
       </c>
       <c r="O8">
-        <v>24229300</v>
+        <v>21293600</v>
       </c>
       <c r="P8">
         <v>23248900</v>
@@ -6374,7 +6426,7 @@
         <v>19334200</v>
       </c>
       <c r="O9">
-        <v>24181700</v>
+        <v>21527800</v>
       </c>
       <c r="P9">
         <v>23214300</v>
@@ -6424,7 +6476,7 @@
         <v>19384800</v>
       </c>
       <c r="O10">
-        <v>24132100</v>
+        <v>21671500</v>
       </c>
       <c r="P10">
         <v>22854800</v>
@@ -6474,7 +6526,7 @@
         <v>19357800</v>
       </c>
       <c r="O11">
-        <v>24397800</v>
+        <v>21503600</v>
       </c>
       <c r="P11">
         <v>22620900</v>
@@ -6524,7 +6576,7 @@
         <v>19407800</v>
       </c>
       <c r="O12">
-        <v>24044900</v>
+        <v>21259400</v>
       </c>
       <c r="P12">
         <v>23055300</v>
@@ -6574,7 +6626,7 @@
         <v>19419000</v>
       </c>
       <c r="O13">
-        <v>24125600</v>
+        <v>21725400</v>
       </c>
       <c r="P13">
         <v>23318400</v>
@@ -6624,7 +6676,7 @@
         <v>19444900</v>
       </c>
       <c r="O14">
-        <v>24569500</v>
+        <v>21831200</v>
       </c>
       <c r="P14">
         <v>22881800</v>
@@ -6674,7 +6726,7 @@
         <v>19245000</v>
       </c>
       <c r="O15">
-        <v>24276500</v>
+        <v>21531200</v>
       </c>
       <c r="P15">
         <v>23433100</v>
@@ -6724,7 +6776,7 @@
         <v>19345600</v>
       </c>
       <c r="O16">
-        <v>23853900</v>
+        <v>21352300</v>
       </c>
       <c r="P16">
         <v>22926300</v>
@@ -6774,7 +6826,7 @@
         <v>19262300</v>
       </c>
       <c r="O17">
-        <v>24293400</v>
+        <v>21655700</v>
       </c>
       <c r="P17">
         <v>22986200</v>
@@ -6824,7 +6876,7 @@
         <v>19322900</v>
       </c>
       <c r="O18">
-        <v>24022000</v>
+        <v>21465700</v>
       </c>
       <c r="P18">
         <v>22807300</v>
@@ -6874,7 +6926,7 @@
         <v>19349400</v>
       </c>
       <c r="O19">
-        <v>24211000</v>
+        <v>22407100</v>
       </c>
       <c r="P19">
         <v>23136900</v>
@@ -6924,7 +6976,7 @@
         <v>19288000</v>
       </c>
       <c r="O20">
-        <v>24202500</v>
+        <v>21455400</v>
       </c>
       <c r="P20">
         <v>22964200</v>
@@ -6974,7 +7026,7 @@
         <v>19581300</v>
       </c>
       <c r="O21">
-        <v>24525200</v>
+        <v>21766600</v>
       </c>
       <c r="P21">
         <v>22918900</v>
@@ -7024,7 +7076,7 @@
         <v>19353800</v>
       </c>
       <c r="O22">
-        <v>24541900</v>
+        <v>21146400</v>
       </c>
       <c r="P22">
         <v>23040900</v>
@@ -7074,7 +7126,7 @@
         <v>20258600</v>
       </c>
       <c r="O23">
-        <v>24442400</v>
+        <v>22084600</v>
       </c>
       <c r="P23">
         <v>23366500</v>
@@ -7124,7 +7176,7 @@
         <v>19661300</v>
       </c>
       <c r="O24">
-        <v>24460300</v>
+        <v>21348500</v>
       </c>
       <c r="P24">
         <v>22769900</v>
@@ -7174,7 +7226,7 @@
         <v>20369500</v>
       </c>
       <c r="O25">
-        <v>24432600</v>
+        <v>21712300</v>
       </c>
       <c r="P25">
         <v>23175100</v>
@@ -7224,7 +7276,7 @@
         <v>19644700</v>
       </c>
       <c r="O26">
-        <v>24698500</v>
+        <v>21635200</v>
       </c>
       <c r="P26">
         <v>23174500</v>
@@ -7274,7 +7326,7 @@
         <v>19491700</v>
       </c>
       <c r="O27">
-        <v>24205400</v>
+        <v>21404000</v>
       </c>
       <c r="P27">
         <v>23570500</v>
@@ -7324,7 +7376,7 @@
         <v>19803700</v>
       </c>
       <c r="O28">
-        <v>24568700</v>
+        <v>21577300</v>
       </c>
       <c r="P28">
         <v>23023000</v>
@@ -7374,7 +7426,7 @@
         <v>19789000</v>
       </c>
       <c r="O29">
-        <v>24474200</v>
+        <v>21845800</v>
       </c>
       <c r="P29">
         <v>23212000</v>
@@ -7424,7 +7476,7 @@
         <v>19519400</v>
       </c>
       <c r="O30">
-        <v>24548900</v>
+        <v>21490100</v>
       </c>
       <c r="P30">
         <v>22886300</v>
@@ -7474,7 +7526,7 @@
         <v>19299300</v>
       </c>
       <c r="O31">
-        <v>24197100</v>
+        <v>21757600</v>
       </c>
       <c r="P31">
         <v>22775700</v>
@@ -7524,7 +7576,7 @@
         <v>19768100</v>
       </c>
       <c r="O32">
-        <v>23953600</v>
+        <v>21481500</v>
       </c>
       <c r="P32">
         <v>23366000</v>
@@ -7574,7 +7626,7 @@
         <v>19486600</v>
       </c>
       <c r="O33">
-        <v>24271000</v>
+        <v>21957600</v>
       </c>
       <c r="P33">
         <v>22592200</v>
@@ -7624,7 +7676,7 @@
         <v>19555400</v>
       </c>
       <c r="O34">
-        <v>24097000</v>
+        <v>21484000</v>
       </c>
       <c r="P34">
         <v>23048100</v>
@@ -7674,7 +7726,7 @@
         <v>19914300</v>
       </c>
       <c r="O35">
-        <v>23859300</v>
+        <v>21977500</v>
       </c>
       <c r="P35">
         <v>22823500</v>
@@ -7724,7 +7776,7 @@
         <v>19692700</v>
       </c>
       <c r="O36">
-        <v>24337000</v>
+        <v>21729600</v>
       </c>
       <c r="P36">
         <v>23507900</v>
@@ -7774,7 +7826,7 @@
         <v>20054900</v>
       </c>
       <c r="O37">
-        <v>23990500</v>
+        <v>21435200</v>
       </c>
       <c r="P37">
         <v>23575800</v>
@@ -7824,7 +7876,7 @@
         <v>19859100</v>
       </c>
       <c r="O38">
-        <v>24484500</v>
+        <v>21436300</v>
       </c>
       <c r="P38">
         <v>22739800</v>
@@ -7874,7 +7926,7 @@
         <v>20043300</v>
       </c>
       <c r="O39">
-        <v>24062000</v>
+        <v>21685200</v>
       </c>
       <c r="P39">
         <v>22403100</v>
@@ -7924,7 +7976,7 @@
         <v>19821500</v>
       </c>
       <c r="O40">
-        <v>24181900</v>
+        <v>21796300</v>
       </c>
       <c r="P40">
         <v>23064000</v>
@@ -7974,7 +8026,7 @@
         <v>19914300</v>
       </c>
       <c r="O41">
-        <v>24380600</v>
+        <v>22006600</v>
       </c>
       <c r="P41">
         <v>22942700</v>
@@ -8038,7 +8090,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
-        <v>24281947.5</v>
+        <v>21591675</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
@@ -8103,7 +8155,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>209359.06462894721</v>
+        <v>283035.4156964487</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
@@ -8119,8 +8171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3473F718-C436-43FE-801F-55E696777EC6}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8143,21 +8195,25 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
+        <f>Bubble!B44</f>
         <v>150569967.5</v>
       </c>
-      <c r="C2">
-        <v>1567853</v>
+      <c r="C2" s="6">
+        <f>Merge!B44</f>
+        <v>1558765</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
+        <f>Bubble!C44</f>
         <v>641403275</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
+        <f>Merge!C44</f>
         <v>2826512.5</v>
       </c>
     </row>
@@ -8165,10 +8221,12 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
+        <f>Bubble!D44</f>
         <v>1676885555</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
+        <f>Merge!D44</f>
         <v>4278597.5</v>
       </c>
       <c r="D4" s="2"/>
@@ -8177,10 +8235,12 @@
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
+        <f>Bubble!E44</f>
         <v>3282649190</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
+        <f>Merge!E44</f>
         <v>5912792.5</v>
       </c>
     </row>
@@ -8188,10 +8248,12 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
+        <f>Bubble!F44</f>
         <v>5419191770</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
+        <f>Merge!F44</f>
         <v>7452922.5</v>
       </c>
     </row>
@@ -8199,10 +8261,12 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
+        <f>Bubble!G44</f>
         <v>8080727285</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
+        <f>Merge!G44</f>
         <v>9267660</v>
       </c>
     </row>
@@ -8210,10 +8274,12 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
+        <f>Bubble!H44</f>
         <v>11318668030</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
+        <f>Merge!H44</f>
         <v>10504050</v>
       </c>
     </row>
@@ -8221,10 +8287,12 @@
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
+        <f>Bubble!I44</f>
         <v>15112367682.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
+        <f>Merge!I44</f>
         <v>12024157.5</v>
       </c>
       <c r="D9" s="2"/>
@@ -8233,10 +8301,12 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
+        <f>Bubble!J44</f>
         <v>19268886697.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
+        <f>Merge!J44</f>
         <v>13494882.5</v>
       </c>
     </row>
@@ -8244,10 +8314,12 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
+        <f>Bubble!K44</f>
         <v>24094782492.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
+        <f>Merge!K44</f>
         <v>15175617.5</v>
       </c>
     </row>
@@ -8255,10 +8327,12 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
+        <f>Bubble!L44</f>
         <v>30327774675</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
+        <f>Merge!L44</f>
         <v>16177037.5</v>
       </c>
     </row>
@@ -8266,10 +8340,12 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
+        <f>Bubble!M44</f>
         <v>36136424737.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
+        <f>Merge!M44</f>
         <v>18261467.5</v>
       </c>
     </row>
@@ -8277,10 +8353,12 @@
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
+        <f>Bubble!N44</f>
         <v>41733899280</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
+        <f>Merge!N44</f>
         <v>19589897.5</v>
       </c>
     </row>
@@ -8288,21 +8366,25 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
+        <f>Bubble!O44</f>
         <v>49279006737.5</v>
       </c>
-      <c r="C15">
-        <v>24281947.5</v>
+      <c r="C15" s="5">
+        <f>Merge!O44</f>
+        <v>21591675</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
+        <f>Bubble!P44</f>
         <v>57463566632.5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
+        <f>Merge!P44</f>
         <v>23021372.5</v>
       </c>
     </row>
